--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -103,64 +103,64 @@
     <t>risk</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>care</t>
@@ -778,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.896551724137931</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.8899082568807339</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.889763779527559</v>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8642857142857143</v>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.8282828282828283</v>
@@ -1210,7 +1210,7 @@
         <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8269230769230769</v>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.8031914893617021</v>
@@ -1310,28 +1310,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1360,28 +1360,28 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1410,28 +1410,28 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7368421052631579</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1460,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>0.7121212121212122</v>
@@ -1510,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0.7111111111111111</v>
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>0.704225352112676</v>
@@ -1610,28 +1610,28 @@
         <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.6953846153846154</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L18">
         <v>226</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1889,25 +1889,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.131578947368421</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
@@ -1939,25 +1939,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1275167785234899</v>
+        <v>0.01092581943645773</v>
       </c>
       <c r="C25">
         <v>19</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>1720</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
@@ -1989,13 +1989,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01092581943645773</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>423</v>
+        <v>566</v>
       </c>
       <c r="E26">
         <v>0.96</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1720</v>
+        <v>2541</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
@@ -2035,30 +2035,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.00819672131147541</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>566</v>
-      </c>
-      <c r="E27">
-        <v>0.96</v>
-      </c>
-      <c r="F27">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2541</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +3466,7 @@
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K82">
         <v>0.1902071563088512</v>
@@ -3568,7 +3544,7 @@
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K85">
         <v>0.1766040181464679</v>
